--- a/data/weekly_timetable.xlsx
+++ b/data/weekly_timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d893debe0afcb60/Desktop/Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_89F0CF69CEA0D409ECF91116CF2528E350C21440" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3401BA25-6452-4097-AEB8-BA82F0542B2D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_89F0CF69CEA0D409ECF91116CF2528E350C21440" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF9A1C5-828C-46CA-9760-40ABD0CB1458}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,57 @@
   </si>
   <si>
     <t>DM(B)</t>
+  </si>
+  <si>
+    <t>VALU('C)</t>
+  </si>
+  <si>
+    <t>VALU(D)</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>DADM/SMKT(A)</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Guru Nanak Jayanti - (Holiday)</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>TEOM(A)/DV&amp;VS(B)/DV&amp;VS('C)</t>
+  </si>
+  <si>
+    <t>SMKT(A)</t>
+  </si>
+  <si>
+    <t>DV&amp;VS(B)/DV&amp;VS('C)</t>
+  </si>
+  <si>
+    <t>DADM</t>
+  </si>
+  <si>
+    <t>CC&amp;AU(A)/ML&amp;AI(B)</t>
+  </si>
+  <si>
+    <t>IMC(A)/IMC(B)</t>
   </si>
 </sst>
 </file>
@@ -285,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -314,6 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -889,6 +941,431 @@
       <c r="M9" s="6"/>
       <c r="N9" s="8"/>
     </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>45964</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>45965</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>45966</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>45967</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>45968</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>45969</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>45970</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>45971</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>45972</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>45973</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>45974</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>45975</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>45976</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>

--- a/data/weekly_timetable.xlsx
+++ b/data/weekly_timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d893debe0afcb60/Desktop/Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_89F0CF69CEA0D409ECF91116CF2528E350C21440" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF9A1C5-828C-46CA-9760-40ABD0CB1458}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_89F0CF69CEA0D409ECF91116CF2528E350C21440" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D90298C-712A-49CD-9D89-6FBB0B35314A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>TEOM(A)/CSE</t>
-  </si>
-  <si>
-    <t>DM(B)</t>
   </si>
   <si>
     <t>VALU('C)</t>
@@ -196,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,18 +214,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -244,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,39 +289,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -344,28 +301,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,19 +526,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -637,8 +582,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,277 +621,215 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45957</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B9" si="0">TEXT(A3,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>45964</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45958</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>45965</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45959</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>45966</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45967</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45960</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Thursday</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M7" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45961</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Friday</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45969</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45962</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45963</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="8"/>
+        <v>45970</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>45964</v>
+      <c r="A10" s="3">
+        <v>45971</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -967,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -980,11 +863,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>45965</v>
+      <c r="A11" s="3">
+        <v>45972</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -993,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -1021,22 +904,49 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>45966</v>
+      <c r="A12" s="3">
+        <v>45973</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45974</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>45967</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1045,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1057,13 +967,10 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
         <v>32</v>
@@ -1073,11 +980,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>45968</v>
+      <c r="A14" s="3">
+        <v>45975</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1098,272 +1005,45 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>45969</v>
+      <c r="A15" s="3">
+        <v>45976</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>45970</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>45971</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>45972</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>45973</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>45974</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>45975</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>45976</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
